--- a/CCS/000/Resources/XML/Stage0.xlsx
+++ b/CCS/000/Resources/XML/Stage0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Numb</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,18 +106,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TOP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +155,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>+50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,22 +163,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +181,34 @@
   <si>
     <t>-80</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -282,13 +286,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,22 +334,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:E26" tableType="xml" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" connectionId="1">
-  <autoFilter ref="A1:E26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:E30" tableType="xml" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" connectionId="1">
+  <autoFilter ref="A1:E30"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="Numb" name="Numb" dataDxfId="6">
+    <tableColumn id="1" uniqueName="Numb" name="Numb" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/Stage/Info/Numb" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Type" name="Type" dataDxfId="5">
+    <tableColumn id="2" uniqueName="Type" name="Type" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/Stage/Info/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Value" name="Value" dataDxfId="4">
+    <tableColumn id="3" uniqueName="Value" name="Value" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/Stage/Info/Value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="POS_X" name="POS_X" dataDxfId="3">
+    <tableColumn id="4" uniqueName="POS_X" name="POS_X" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/Stage/Info/POS_X" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="POS_Y" name="POS_Y" dataDxfId="2">
+    <tableColumn id="5" uniqueName="POS_Y" name="POS_Y" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/Stage/Info/POS_Y" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -640,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,13 +684,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,10 +698,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -710,13 +714,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -740,13 +744,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -766,37 +770,37 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
@@ -808,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -822,10 +826,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -838,13 +842,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -852,10 +856,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -864,150 +868,210 @@
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5000</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
         <v>0</v>
       </c>
     </row>
